--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_BEFTA_JURISDICTION2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccabaker/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0A2ACE7F-7363-8D45-9F37-6A36C38BE866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{67B8FA8F-5BFD-4BCB-959E-B39A1399B218}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FECBF5-6652-2F42-9F8B-6909B68D9981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17180" tabRatio="823" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44960" yWindow="3140" windowWidth="30720" windowHeight="17180" tabRatio="823" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -37,19 +37,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">AuthorisationCaseField!$A$1:$F$127</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -59,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="318">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1025,6 +1016,9 @@
   <si>
     <t>C - Create, R - Read, U - Update, D - Delete
 MustBe1OrManyOf: &lt;C,R,U,D&gt; MaxLength: 5</t>
+  </si>
+  <si>
+    <t>AccessProfile</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1030,7 @@
     <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1947,16 +1941,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.85546875" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.83203125" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +1965,7 @@
       </c>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1">
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
@@ -1984,7 +1978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -2001,7 +1995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -2043,17 +2037,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>247</v>
       </c>
@@ -2069,7 +2063,7 @@
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:6" s="23" customFormat="1" ht="42">
+    <row r="2" spans="1:6" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -2085,7 +2079,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -2105,7 +2099,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>42736</v>
       </c>
@@ -2123,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1">
+    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>42736</v>
       </c>
@@ -2141,7 +2135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1">
+    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>42736</v>
       </c>
@@ -2159,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="11" customFormat="1">
+    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>42736</v>
       </c>
@@ -2217,18 +2211,18 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="53" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="53" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="53" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="11"/>
+    <col min="1" max="1" width="28.83203125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="53" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="53" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.95">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>251</v>
       </c>
@@ -2244,7 +2238,7 @@
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
     </row>
-    <row r="2" spans="1:6" ht="48">
+    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
       <c r="C2" s="50" t="s">
@@ -2260,7 +2254,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="51" t="s">
         <v>7</v>
       </c>
@@ -2280,7 +2274,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -2298,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -2356,17 +2350,17 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1">
+    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>255</v>
       </c>
@@ -2382,7 +2376,7 @@
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:6" s="23" customFormat="1" ht="42">
+    <row r="2" spans="1:6" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="24" t="s">
@@ -2398,7 +2392,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -2418,7 +2412,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>42736</v>
       </c>
@@ -2436,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1">
+    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>42736</v>
       </c>
@@ -2454,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1">
+    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="17"/>
       <c r="D6" s="34"/>
@@ -2501,19 +2495,19 @@
       <selection activeCell="H19" sqref="C19:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
     <col min="5" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.83203125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
@@ -2532,7 +2526,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="24" t="s">
@@ -2557,7 +2551,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -2586,7 +2580,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>42736</v>
       </c>
@@ -2613,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>42736</v>
       </c>
@@ -2640,7 +2634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>42736</v>
       </c>
@@ -2667,7 +2661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>42736</v>
       </c>
@@ -2694,7 +2688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>42736</v>
       </c>
@@ -2721,7 +2715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>42736</v>
       </c>
@@ -2748,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>42736</v>
       </c>
@@ -2775,7 +2769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>42736</v>
       </c>
@@ -2802,7 +2796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>42736</v>
       </c>
@@ -2829,7 +2823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>42736</v>
       </c>
@@ -2856,7 +2850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>42736</v>
       </c>
@@ -2883,7 +2877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>42736</v>
       </c>
@@ -2910,7 +2904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>42736</v>
       </c>
@@ -2937,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>42736</v>
       </c>
@@ -2964,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>42736</v>
       </c>
@@ -2991,7 +2985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>42736</v>
       </c>
@@ -3018,7 +3012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="20" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>42736</v>
       </c>
@@ -3045,7 +3039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="21" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>42736</v>
       </c>
@@ -3072,7 +3066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>42736</v>
       </c>
@@ -3099,7 +3093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>42736</v>
       </c>
@@ -3126,7 +3120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>42736</v>
       </c>
@@ -3153,7 +3147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>42736</v>
       </c>
@@ -3180,7 +3174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>42736</v>
       </c>
@@ -3207,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>42736</v>
       </c>
@@ -3234,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>42736</v>
       </c>
@@ -3261,7 +3255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="29" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>42736</v>
       </c>
@@ -3288,7 +3282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>42736</v>
       </c>
@@ -3315,7 +3309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>42736</v>
       </c>
@@ -3342,7 +3336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>42736</v>
       </c>
@@ -3369,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>42736</v>
       </c>
@@ -3396,7 +3390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>42736</v>
       </c>
@@ -3423,7 +3417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>42736</v>
       </c>
@@ -3450,7 +3444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="36" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>42736</v>
       </c>
@@ -3477,7 +3471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="37" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>42736</v>
       </c>
@@ -3504,7 +3498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>42736</v>
       </c>
@@ -3531,7 +3525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <v>42736</v>
       </c>
@@ -3558,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21">
         <v>42736</v>
       </c>
@@ -3585,7 +3579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="41" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
         <v>42736</v>
       </c>
@@ -3612,7 +3606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="42" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>42736</v>
       </c>
@@ -3669,15 +3663,15 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
         <v>273</v>
       </c>
@@ -3691,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="72" t="s">
         <v>4</v>
       </c>
@@ -3705,7 +3699,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="74" t="s">
         <v>37</v>
       </c>
@@ -3719,7 +3713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>25</v>
       </c>
@@ -3746,17 +3740,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="12.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>278</v>
       </c>
@@ -3771,7 +3765,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="30" customFormat="1">
+    <row r="3" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
         <v>7</v>
       </c>
@@ -3791,7 +3785,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="54">
         <v>42736</v>
       </c>
@@ -3809,7 +3803,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="54">
         <v>42736</v>
       </c>
@@ -3827,7 +3821,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="54">
         <v>42736</v>
       </c>
@@ -3845,7 +3839,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="54">
         <v>42736</v>
       </c>
@@ -3863,7 +3857,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="54">
         <v>42736</v>
       </c>
@@ -3904,19 +3898,19 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.1640625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
@@ -3931,7 +3925,7 @@
       </c>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="42">
+    <row r="2" spans="1:5" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="24" t="s">
@@ -3944,7 +3938,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.95">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="78" t="s">
         <v>7</v>
       </c>
@@ -3955,13 +3949,13 @@
         <v>37</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="E3" s="78" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="11" customFormat="1" ht="12.95">
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="54">
         <v>42736</v>
       </c>
@@ -3976,7 +3970,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.95">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="54">
         <v>42736</v>
       </c>
@@ -3991,7 +3985,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="11" customFormat="1" ht="12.95">
+    <row r="6" spans="1:5" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="54">
         <v>42736</v>
       </c>
@@ -4006,7 +4000,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="11" customFormat="1" ht="12.95">
+    <row r="7" spans="1:5" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="54">
         <v>42736</v>
       </c>
@@ -4021,7 +4015,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="54">
         <v>42736</v>
       </c>
@@ -4036,7 +4030,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="54">
         <v>42736</v>
       </c>
@@ -4051,7 +4045,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="54">
         <v>42736</v>
       </c>
@@ -4081,22 +4075,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="43" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="41.140625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="43" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="41"/>
+    <col min="1" max="1" width="28.1640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="43" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
         <v>300</v>
       </c>
@@ -4112,7 +4106,7 @@
       <c r="E1" s="83"/>
       <c r="F1" s="83"/>
     </row>
-    <row r="2" spans="1:6" ht="69.95">
+    <row r="2" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="85" t="s">
@@ -4128,7 +4122,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.95" customHeight="1">
+    <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="86" t="s">
         <v>7</v>
       </c>
@@ -4142,13 +4136,13 @@
         <v>302</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="F3" s="86" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.95" customHeight="1">
+    <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="88">
         <v>42736</v>
       </c>
@@ -4166,7 +4160,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.95" customHeight="1">
+    <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="88">
         <v>42736</v>
       </c>
@@ -4184,7 +4178,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.95" customHeight="1">
+    <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="88">
         <v>42736</v>
       </c>
@@ -4202,7 +4196,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.95" customHeight="1">
+    <row r="7" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="88">
         <v>42736</v>
       </c>
@@ -4220,7 +4214,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.95" customHeight="1">
+    <row r="8" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="88">
         <v>42736</v>
       </c>
@@ -4238,7 +4232,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.95" customHeight="1">
+    <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="88">
         <v>42736</v>
       </c>
@@ -4256,7 +4250,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.95" customHeight="1">
+    <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="88">
         <v>42736</v>
       </c>
@@ -4274,7 +4268,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.95" customHeight="1">
+    <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="88">
         <v>42736</v>
       </c>
@@ -4292,7 +4286,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.95" customHeight="1">
+    <row r="12" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="88">
         <v>42736</v>
       </c>
@@ -4310,7 +4304,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.95" customHeight="1">
+    <row r="13" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="88">
         <v>42736</v>
       </c>
@@ -4328,7 +4322,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.95" customHeight="1">
+    <row r="14" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="88">
         <v>42736</v>
       </c>
@@ -4346,7 +4340,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.95" customHeight="1">
+    <row r="15" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="88">
         <v>42736</v>
       </c>
@@ -4364,7 +4358,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.95" customHeight="1">
+    <row r="16" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="88">
         <v>42736</v>
       </c>
@@ -4382,7 +4376,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.95" customHeight="1">
+    <row r="17" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="88">
         <v>42736</v>
       </c>
@@ -4400,7 +4394,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.95" customHeight="1">
+    <row r="18" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="88">
         <v>42736</v>
       </c>
@@ -4418,7 +4412,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="90">
         <v>42736</v>
       </c>
@@ -4436,7 +4430,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="90">
         <v>42736</v>
       </c>
@@ -4454,7 +4448,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="90">
         <v>42736</v>
       </c>
@@ -4472,7 +4466,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="90">
         <v>42736</v>
       </c>
@@ -4490,7 +4484,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="90">
         <v>42736</v>
       </c>
@@ -4508,7 +4502,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="90">
         <v>42736</v>
       </c>
@@ -4541,20 +4535,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A4:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>303</v>
       </c>
@@ -4570,7 +4564,7 @@
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:6" s="23" customFormat="1" ht="69.95">
+    <row r="2" spans="1:6" s="23" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -4586,7 +4580,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="26" customFormat="1" ht="12.95">
+    <row r="3" spans="1:6" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="78" t="s">
         <v>7</v>
       </c>
@@ -4600,13 +4594,13 @@
         <v>226</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="F3" s="78" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="54">
         <v>42736</v>
       </c>
@@ -4623,7 +4617,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="54">
         <v>42736</v>
       </c>
@@ -4640,7 +4634,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="54">
         <v>42736</v>
       </c>
@@ -4657,7 +4651,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="54">
         <v>42736</v>
       </c>
@@ -4674,7 +4668,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="54">
         <v>42736</v>
       </c>
@@ -4691,7 +4685,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="54">
         <v>42736</v>
       </c>
@@ -4708,7 +4702,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="54">
         <v>42736</v>
       </c>
@@ -4725,7 +4719,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="54">
         <v>42736</v>
       </c>
@@ -4742,7 +4736,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="54">
         <v>42736</v>
       </c>
@@ -4759,7 +4753,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="54">
         <v>42736</v>
       </c>
@@ -4776,7 +4770,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="54">
         <v>42736</v>
       </c>
@@ -4793,7 +4787,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="54">
         <v>42736</v>
       </c>
@@ -4810,7 +4804,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="54">
         <v>42736</v>
       </c>
@@ -4827,7 +4821,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="54">
         <v>42736</v>
       </c>
@@ -4844,7 +4838,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="54">
         <v>42736</v>
       </c>
@@ -4861,7 +4855,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="54">
         <v>42736</v>
       </c>
@@ -4878,7 +4872,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="54">
         <v>42736</v>
       </c>
@@ -4895,7 +4889,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="54">
         <v>42736</v>
       </c>
@@ -4912,7 +4906,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="54">
         <v>42736</v>
       </c>
@@ -4929,7 +4923,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="54">
         <v>42736</v>
       </c>
@@ -4946,7 +4940,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="54">
         <v>42736</v>
       </c>
@@ -4963,7 +4957,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="54">
         <v>42736</v>
       </c>
@@ -4980,7 +4974,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="54">
         <v>42736</v>
       </c>
@@ -4997,7 +4991,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="54">
         <v>42736</v>
       </c>
@@ -5014,7 +5008,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
         <v>42736</v>
       </c>
@@ -5031,7 +5025,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="54">
         <v>42736</v>
       </c>
@@ -5049,7 +5043,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="54">
         <v>42736</v>
       </c>
@@ -5067,7 +5061,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="54">
         <v>42736</v>
       </c>
@@ -5085,7 +5079,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="54">
         <v>42736</v>
       </c>
@@ -5103,7 +5097,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="54">
         <v>42736</v>
       </c>
@@ -5121,7 +5115,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="54">
         <v>42736</v>
       </c>
@@ -5139,7 +5133,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="54">
         <v>42736</v>
       </c>
@@ -5157,7 +5151,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="54">
         <v>42736</v>
       </c>
@@ -5175,7 +5169,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="54">
         <v>42736</v>
       </c>
@@ -5193,7 +5187,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="54">
         <v>42736</v>
       </c>
@@ -5211,7 +5205,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="54">
         <v>42736</v>
       </c>
@@ -5229,7 +5223,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="54">
         <v>42736</v>
       </c>
@@ -5247,7 +5241,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -5255,7 +5249,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -5263,7 +5257,7 @@
       <c r="E42" s="19"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -5271,7 +5265,7 @@
       <c r="E43" s="19"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5279,7 +5273,7 @@
       <c r="E44" s="19"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -5287,7 +5281,7 @@
       <c r="E45" s="19"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -5295,7 +5289,7 @@
       <c r="E46" s="19"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -5303,7 +5297,7 @@
       <c r="E47" s="19"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -5311,7 +5305,7 @@
       <c r="E48" s="19"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -5319,7 +5313,7 @@
       <c r="E49" s="19"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -5327,7 +5321,7 @@
       <c r="E50" s="19"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -5335,7 +5329,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -5343,7 +5337,7 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -5351,7 +5345,7 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -5359,7 +5353,7 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -5384,19 +5378,19 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E20" sqref="A1:F143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="104.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>304</v>
       </c>
@@ -5412,7 +5406,7 @@
       <c r="E1" s="22"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="69.95" hidden="1">
+    <row r="2" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
@@ -5428,7 +5422,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="26" customFormat="1" ht="12.95" hidden="1">
+    <row r="3" spans="1:6" s="26" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="78" t="s">
         <v>7</v>
       </c>
@@ -5448,7 +5442,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="54">
         <v>42736</v>
       </c>
@@ -5465,7 +5459,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="54">
         <v>42736</v>
       </c>
@@ -5482,7 +5476,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="54">
         <v>42736</v>
       </c>
@@ -5499,7 +5493,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="54">
         <v>42736</v>
       </c>
@@ -5516,7 +5510,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="54">
         <v>42736</v>
       </c>
@@ -5533,7 +5527,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="54">
         <v>42736</v>
       </c>
@@ -5550,7 +5544,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="54">
         <v>42736</v>
       </c>
@@ -5567,7 +5561,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="54">
         <v>42736</v>
       </c>
@@ -5584,7 +5578,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="54">
         <v>42736</v>
       </c>
@@ -5601,7 +5595,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="54">
         <v>42736</v>
       </c>
@@ -5618,7 +5612,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="54">
         <v>42736</v>
       </c>
@@ -5635,7 +5629,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="54">
         <v>42736</v>
       </c>
@@ -5652,7 +5646,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="54">
         <v>42736</v>
       </c>
@@ -5669,7 +5663,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="54">
         <v>42736</v>
       </c>
@@ -5686,7 +5680,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="54">
         <v>42736</v>
       </c>
@@ -5703,7 +5697,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="54">
         <v>42736</v>
       </c>
@@ -5720,7 +5714,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="54">
         <v>42736</v>
       </c>
@@ -5738,7 +5732,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="54">
         <v>42736</v>
       </c>
@@ -5755,7 +5749,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="54">
         <v>42736</v>
       </c>
@@ -5772,7 +5766,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="54">
         <v>42736</v>
       </c>
@@ -5789,7 +5783,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="54">
         <v>42736</v>
       </c>
@@ -5806,7 +5800,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="54">
         <v>42736</v>
       </c>
@@ -5823,7 +5817,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="54">
         <v>42736</v>
       </c>
@@ -5840,7 +5834,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="54">
         <v>42736</v>
       </c>
@@ -5857,7 +5851,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
         <v>42736</v>
       </c>
@@ -5874,7 +5868,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="54">
         <v>42736</v>
       </c>
@@ -5891,7 +5885,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="54">
         <v>42736</v>
       </c>
@@ -5908,7 +5902,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="54">
         <v>42736</v>
       </c>
@@ -5925,7 +5919,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="54">
         <v>42736</v>
       </c>
@@ -5943,7 +5937,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="54">
         <v>42736</v>
       </c>
@@ -5960,7 +5954,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="54">
         <v>42736</v>
       </c>
@@ -5977,7 +5971,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="54">
         <v>42736</v>
       </c>
@@ -5994,7 +5988,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="54">
         <v>42736</v>
       </c>
@@ -6011,7 +6005,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="54">
         <v>42736</v>
       </c>
@@ -6028,7 +6022,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="54">
         <v>42736</v>
       </c>
@@ -6045,7 +6039,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="54">
         <v>42736</v>
       </c>
@@ -6062,7 +6056,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="54">
         <v>42736</v>
       </c>
@@ -6080,7 +6074,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="41" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="54">
         <v>42736</v>
       </c>
@@ -6097,7 +6091,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="54">
         <v>42736</v>
       </c>
@@ -6114,7 +6108,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="54">
         <v>42736</v>
       </c>
@@ -6131,7 +6125,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="54">
         <v>42736</v>
       </c>
@@ -6148,7 +6142,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="54">
         <v>42736</v>
       </c>
@@ -6165,7 +6159,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="54">
         <v>42736</v>
       </c>
@@ -6182,7 +6176,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="54">
         <v>42736</v>
       </c>
@@ -6199,7 +6193,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="54">
         <v>42736</v>
       </c>
@@ -6216,7 +6210,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="54">
         <v>42736</v>
       </c>
@@ -6233,7 +6227,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="50" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="54">
         <v>42736</v>
       </c>
@@ -6250,7 +6244,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="54">
         <v>42736</v>
       </c>
@@ -6267,7 +6261,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="54">
         <v>42736</v>
       </c>
@@ -6284,7 +6278,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="54">
         <v>42736</v>
       </c>
@@ -6301,7 +6295,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="54" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="54">
         <v>42736</v>
       </c>
@@ -6318,7 +6312,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="55" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="54">
         <v>42736</v>
       </c>
@@ -6335,7 +6329,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="56" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="54">
         <v>42736</v>
       </c>
@@ -6352,7 +6346,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="54">
         <v>42736</v>
       </c>
@@ -6369,7 +6363,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="58" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="54">
         <v>42736</v>
       </c>
@@ -6386,7 +6380,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="59" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="54">
         <v>42736</v>
       </c>
@@ -6403,7 +6397,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="60" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="54">
         <v>42736</v>
       </c>
@@ -6420,7 +6414,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="61" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="54">
         <v>42736</v>
       </c>
@@ -6437,7 +6431,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="62" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="54">
         <v>42736</v>
       </c>
@@ -6454,7 +6448,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="63" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="54">
         <v>42736</v>
       </c>
@@ -6471,7 +6465,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="64" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="54">
         <v>42736</v>
       </c>
@@ -6488,7 +6482,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="65" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="54">
         <v>42736</v>
       </c>
@@ -6505,7 +6499,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="66" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="54">
         <v>42736</v>
       </c>
@@ -6522,7 +6516,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="67" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="54">
         <v>42736</v>
       </c>
@@ -6539,7 +6533,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="54">
         <v>42736</v>
       </c>
@@ -6556,7 +6550,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="69" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="54">
         <v>42736</v>
       </c>
@@ -6573,7 +6567,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="70" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="54">
         <v>42736</v>
       </c>
@@ -6590,7 +6584,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="71" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="54">
         <v>42736</v>
       </c>
@@ -6607,7 +6601,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="72" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="54">
         <v>42736</v>
       </c>
@@ -6624,7 +6618,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="54">
         <v>42736</v>
       </c>
@@ -6641,7 +6635,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="74" spans="1:6" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="54">
         <v>42736</v>
       </c>
@@ -6658,7 +6652,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="75" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="54">
         <v>42736</v>
       </c>
@@ -6675,7 +6669,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="76" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="54">
         <v>42736</v>
       </c>
@@ -6692,7 +6686,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="77" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="54">
         <v>42736</v>
       </c>
@@ -6709,7 +6703,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="78" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="54">
         <v>42736</v>
       </c>
@@ -6726,7 +6720,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="79" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="54">
         <v>42736</v>
       </c>
@@ -6743,7 +6737,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="80" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="54">
         <v>42736</v>
       </c>
@@ -6760,7 +6754,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="81" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="54">
         <v>42736</v>
       </c>
@@ -6777,7 +6771,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="82" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="54">
         <v>42736</v>
       </c>
@@ -6794,7 +6788,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="54">
         <v>42736</v>
       </c>
@@ -6811,7 +6805,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="54">
         <v>42736</v>
       </c>
@@ -6828,7 +6822,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="54">
         <v>42736</v>
       </c>
@@ -6845,7 +6839,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="54">
         <v>42736</v>
       </c>
@@ -6862,7 +6856,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="87" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="54">
         <v>42736</v>
       </c>
@@ -6879,7 +6873,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="88" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="54">
         <v>42736</v>
       </c>
@@ -6896,7 +6890,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="89" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="54">
         <v>42736</v>
       </c>
@@ -6913,7 +6907,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="90" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="54">
         <v>42736</v>
       </c>
@@ -6930,7 +6924,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="91" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="54">
         <v>42736</v>
       </c>
@@ -6947,7 +6941,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="92" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="54">
         <v>42736</v>
       </c>
@@ -6964,7 +6958,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="93" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="54">
         <v>42736</v>
       </c>
@@ -6981,7 +6975,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="94" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="54">
         <v>42736</v>
       </c>
@@ -6998,7 +6992,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="95" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="54">
         <v>42736</v>
       </c>
@@ -7015,7 +7009,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="96" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="54">
         <v>42736</v>
       </c>
@@ -7032,7 +7026,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="97" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="54">
         <v>42736</v>
       </c>
@@ -7049,7 +7043,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="98" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="54">
         <v>42736</v>
       </c>
@@ -7066,7 +7060,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="99" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="54">
         <v>42736</v>
       </c>
@@ -7083,7 +7077,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="54">
         <v>42736</v>
       </c>
@@ -7100,7 +7094,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="54">
         <v>42736</v>
       </c>
@@ -7117,7 +7111,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="54">
         <v>42736</v>
       </c>
@@ -7134,7 +7128,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="54">
         <v>42736</v>
       </c>
@@ -7151,7 +7145,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="54">
         <v>42736</v>
       </c>
@@ -7168,7 +7162,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1">
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="54">
         <v>42736</v>
       </c>
@@ -7186,7 +7180,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1">
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="54">
         <v>42736</v>
       </c>
@@ -7204,7 +7198,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1">
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="54">
         <v>42736</v>
       </c>
@@ -7222,7 +7216,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1">
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="54">
         <v>42736</v>
       </c>
@@ -7240,7 +7234,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1">
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="54">
         <v>42736</v>
       </c>
@@ -7258,7 +7252,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1">
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="54">
         <v>42736</v>
       </c>
@@ -7276,7 +7270,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1">
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="54">
         <v>42736</v>
       </c>
@@ -7294,7 +7288,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1">
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="54">
         <v>42736</v>
       </c>
@@ -7312,7 +7306,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1">
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="54">
         <v>42736</v>
       </c>
@@ -7330,7 +7324,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1">
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="54">
         <v>42736</v>
       </c>
@@ -7348,7 +7342,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1">
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="54">
         <v>42736</v>
       </c>
@@ -7366,7 +7360,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1">
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="54">
         <v>42736</v>
       </c>
@@ -7384,7 +7378,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1">
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="54">
         <v>42736</v>
       </c>
@@ -7402,7 +7396,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1">
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="54">
         <v>42736</v>
       </c>
@@ -7420,7 +7414,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1">
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="54">
         <v>42736</v>
       </c>
@@ -7438,7 +7432,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1">
+    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="54">
         <v>42736</v>
       </c>
@@ -7456,7 +7450,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1">
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="54">
         <v>42736</v>
       </c>
@@ -7474,7 +7468,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1">
+    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="54">
         <v>42736</v>
       </c>
@@ -7492,7 +7486,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1">
+    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="54">
         <v>42736</v>
       </c>
@@ -7510,7 +7504,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1">
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="54">
         <v>42736</v>
       </c>
@@ -7528,7 +7522,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1">
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="54">
         <v>42736</v>
       </c>
@@ -7546,7 +7540,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1">
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="54">
         <v>42736</v>
       </c>
@@ -7564,7 +7558,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1">
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="54">
         <v>42736</v>
       </c>
@@ -7582,7 +7576,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1">
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="54">
         <v>42736</v>
       </c>
@@ -7600,7 +7594,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1">
+    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="54">
         <v>42736</v>
       </c>
@@ -7618,7 +7612,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1">
+    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="54">
         <v>42736</v>
       </c>
@@ -7636,7 +7630,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1">
+    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="54">
         <v>42736</v>
       </c>
@@ -7654,7 +7648,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1">
+    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="54">
         <v>42736</v>
       </c>
@@ -7672,7 +7666,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1">
+    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="54">
         <v>42736</v>
       </c>
@@ -7690,7 +7684,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1">
+    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="54">
         <v>42736</v>
       </c>
@@ -7708,7 +7702,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1">
+    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="54">
         <v>42736</v>
       </c>
@@ -7726,7 +7720,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1">
+    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="54">
         <v>42736</v>
       </c>
@@ -7744,7 +7738,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1">
+    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="54">
         <v>42736</v>
       </c>
@@ -7762,7 +7756,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1">
+    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="54">
         <v>42736</v>
       </c>
@@ -7780,7 +7774,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1">
+    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="54">
         <v>42736</v>
       </c>
@@ -7798,7 +7792,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1">
+    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="54">
         <v>42736</v>
       </c>
@@ -7816,7 +7810,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1">
+    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="54">
         <v>42736</v>
       </c>
@@ -7834,7 +7828,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1">
+    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="54">
         <v>42736</v>
       </c>
@@ -7852,7 +7846,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1">
+    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="54">
         <v>42736</v>
       </c>
@@ -7896,20 +7890,20 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7928,7 +7922,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="74.099999999999994" customHeight="1">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -7953,7 +7947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -7982,7 +7976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -8005,7 +7999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -8049,23 +8043,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="144" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="D2" zoomScale="144" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" style="62" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="62" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="62"/>
+    <col min="1" max="1" width="33.1640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="62" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="62" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="57" t="s">
         <v>311</v>
       </c>
@@ -8082,7 +8076,7 @@
       <c r="F1" s="61"/>
       <c r="G1" s="61"/>
     </row>
-    <row r="2" spans="1:7" ht="69.95">
+    <row r="2" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="64" t="s">
@@ -8101,7 +8095,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="65" t="s">
         <v>7</v>
       </c>
@@ -8118,13 +8112,13 @@
         <v>138</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="54">
         <v>42736</v>
       </c>
@@ -8144,7 +8138,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="54">
         <v>42736</v>
       </c>
@@ -8164,7 +8158,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="54">
         <v>42736</v>
       </c>
@@ -8184,7 +8178,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="54">
         <v>42736</v>
       </c>
@@ -8204,7 +8198,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="54">
         <v>42736</v>
       </c>
@@ -8224,7 +8218,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="54">
         <v>42736</v>
       </c>
@@ -8244,7 +8238,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="54">
         <v>42736</v>
       </c>
@@ -8264,7 +8258,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="54">
         <v>42736</v>
       </c>
@@ -8284,7 +8278,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="54">
         <v>42736</v>
       </c>
@@ -8304,7 +8298,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="54">
         <v>42736</v>
       </c>
@@ -8324,7 +8318,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="54">
         <v>42736</v>
       </c>
@@ -8344,7 +8338,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="54">
         <v>42736</v>
       </c>
@@ -8364,21 +8358,21 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="54"/>
       <c r="C16" s="11"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="54"/>
       <c r="C17" s="11"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="54"/>
       <c r="C18" s="11"/>
       <c r="D18" s="34"/>
@@ -8398,22 +8392,22 @@
       <selection activeCell="D4" sqref="D4:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
     <col min="7" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="13" width="8.85546875" customWidth="1"/>
+    <col min="12" max="13" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -8436,7 +8430,7 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" s="23" customFormat="1" ht="51.75" customHeight="1">
+    <row r="2" spans="1:13" s="23" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -8469,7 +8463,7 @@
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
     </row>
-    <row r="3" spans="1:13" ht="12.75" customHeight="1">
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -8510,7 +8504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="12.75" customHeight="1">
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -8541,7 +8535,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -8570,7 +8564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -8599,7 +8593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -8628,7 +8622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -8657,7 +8651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -8686,7 +8680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -8715,7 +8709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -8744,7 +8738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -8773,7 +8767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -8804,7 +8798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -8835,7 +8829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -8866,7 +8860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -8895,7 +8889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
@@ -8924,7 +8918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>42736</v>
       </c>
@@ -8953,7 +8947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>42736</v>
       </c>
@@ -8982,7 +8976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="20" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <v>42736</v>
       </c>
@@ -9011,7 +9005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>42736</v>
       </c>
@@ -9040,7 +9034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <v>42736</v>
       </c>
@@ -9069,7 +9063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <v>42736</v>
       </c>
@@ -9098,7 +9092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <v>42736</v>
       </c>
@@ -9127,7 +9121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <v>42736</v>
       </c>
@@ -9158,7 +9152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
         <v>42736</v>
       </c>
@@ -9187,7 +9181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>42736</v>
       </c>
@@ -9216,7 +9210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>42736</v>
       </c>
@@ -9245,7 +9239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="29" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10">
         <v>42736</v>
       </c>
@@ -9274,7 +9268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10">
         <v>42736</v>
       </c>
@@ -9303,7 +9297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10">
         <v>42736</v>
       </c>
@@ -9332,7 +9326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10">
         <v>42736</v>
       </c>
@@ -9361,7 +9355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10">
         <v>42736</v>
       </c>
@@ -9390,7 +9384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10">
         <v>42736</v>
       </c>
@@ -9419,7 +9413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10">
         <v>42736</v>
       </c>
@@ -9448,7 +9442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="36" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10">
         <v>42736</v>
       </c>
@@ -9479,7 +9473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="37" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10">
         <v>42736</v>
       </c>
@@ -9510,7 +9504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10">
         <v>42736</v>
       </c>
@@ -9541,7 +9535,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10">
         <v>42736</v>
       </c>
@@ -9570,7 +9564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10">
         <v>42736</v>
       </c>
@@ -9599,7 +9593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10">
         <v>42736</v>
       </c>
@@ -9630,7 +9624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="42" spans="1:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10">
         <v>42736</v>
       </c>
@@ -9686,15 +9680,15 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>136</v>
       </c>
@@ -9709,7 +9703,7 @@
       </c>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:5" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -9722,7 +9716,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -9739,7 +9733,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>42736</v>
       </c>
@@ -9754,7 +9748,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>42736</v>
       </c>
@@ -9769,7 +9763,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>42736</v>
       </c>
@@ -9784,7 +9778,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>42736</v>
       </c>
@@ -9799,7 +9793,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>42736</v>
       </c>
@@ -9814,7 +9808,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>42736</v>
       </c>
@@ -9829,7 +9823,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>42736</v>
       </c>
@@ -9844,7 +9838,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>42736</v>
       </c>
@@ -9859,7 +9853,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>42736</v>
       </c>
@@ -9874,7 +9868,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>42736</v>
       </c>
@@ -9889,7 +9883,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>42736</v>
       </c>
@@ -9930,24 +9924,24 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" style="11" customWidth="1"/>
     <col min="10" max="10" width="37" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" customWidth="1"/>
+    <col min="13" max="14" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
@@ -9971,7 +9965,7 @@
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:14" ht="51.75" customHeight="1">
+    <row r="2" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
@@ -10007,7 +10001,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1">
+    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -10051,7 +10045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="4" spans="1:14" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -10081,7 +10075,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -10113,7 +10107,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="12.75" customHeight="1">
+    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -10143,7 +10137,7 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -10173,7 +10167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:14" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -10227,18 +10221,18 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
@@ -10255,7 +10249,7 @@
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" ht="60.95" customHeight="1">
+    <row r="2" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -10268,7 +10262,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -10291,7 +10285,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -10310,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -10329,7 +10323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -10348,7 +10342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -10367,7 +10361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -10386,7 +10380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -10435,28 +10429,28 @@
       <selection activeCell="C5" sqref="C5:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="45.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" style="23" customWidth="1"/>
-    <col min="12" max="12" width="31.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="23.7109375" customWidth="1"/>
-    <col min="17" max="17" width="31.140625" customWidth="1"/>
+    <col min="12" max="12" width="31.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>186</v>
       </c>
@@ -10477,7 +10471,7 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" ht="84">
+    <row r="2" spans="1:17" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
@@ -10526,7 +10520,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="12.75" customHeight="1">
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -10579,7 +10573,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12.75" customHeight="1">
+    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -10608,7 +10602,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="5" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -10645,7 +10639,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -10682,7 +10676,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -10719,7 +10713,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -10756,7 +10750,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -10793,7 +10787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:17" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -10828,7 +10822,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -10865,7 +10859,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -10902,7 +10896,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -10939,7 +10933,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -10976,7 +10970,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -11043,25 +11037,25 @@
       <selection activeCell="D19" sqref="D19:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" style="11" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
@@ -11085,7 +11079,7 @@
       <c r="M1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" s="39" customFormat="1" ht="54.75" customHeight="1">
+    <row r="2" spans="1:15" s="39" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35" t="s">
@@ -11128,7 +11122,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -11175,7 +11169,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.75" customHeight="1">
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -11213,7 +11207,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -11250,7 +11244,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -11287,7 +11281,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -11324,7 +11318,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -11361,7 +11355,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -11398,7 +11392,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -11435,7 +11429,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -11472,7 +11466,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -11509,7 +11503,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -11546,7 +11540,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -11583,7 +11577,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -11620,7 +11614,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -11657,7 +11651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
@@ -11694,7 +11688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>42736</v>
       </c>
@@ -11731,7 +11725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>42736</v>
       </c>
@@ -11768,7 +11762,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <v>42736</v>
       </c>
@@ -11805,7 +11799,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>42736</v>
       </c>
@@ -11842,7 +11836,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <v>42736</v>
       </c>
@@ -11879,7 +11873,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <v>42736</v>
       </c>
@@ -11916,7 +11910,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <v>42736</v>
       </c>
@@ -11953,7 +11947,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <v>42736</v>
       </c>
@@ -11990,7 +11984,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
         <v>42736</v>
       </c>
@@ -12027,7 +12021,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>42736</v>
       </c>
@@ -12064,7 +12058,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>42736</v>
       </c>
@@ -12101,7 +12095,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10">
         <v>42736</v>
       </c>
@@ -12138,7 +12132,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10">
         <v>42736</v>
       </c>
@@ -12175,7 +12169,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10">
         <v>42736</v>
       </c>
@@ -12212,7 +12206,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10">
         <v>42736</v>
       </c>
@@ -12249,7 +12243,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10">
         <v>42736</v>
       </c>
@@ -12286,7 +12280,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10">
         <v>42736</v>
       </c>
@@ -12323,7 +12317,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10">
         <v>42736</v>
       </c>
@@ -12360,7 +12354,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10">
         <v>42736</v>
       </c>
@@ -12397,7 +12391,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10">
         <v>42736</v>
       </c>
@@ -12434,7 +12428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10">
         <v>42736</v>
       </c>
@@ -12471,7 +12465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10">
         <v>42736</v>
       </c>
@@ -12508,7 +12502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10">
         <v>42736</v>
       </c>
@@ -12545,7 +12539,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="41" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10">
         <v>42736</v>
       </c>
@@ -12582,7 +12576,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10">
         <v>42736</v>
       </c>
@@ -12619,7 +12613,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="43" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10">
         <v>42736</v>
       </c>
@@ -12656,7 +12650,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="44" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10">
         <v>42736</v>
       </c>
@@ -12693,7 +12687,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="45" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10">
         <v>42736</v>
       </c>
@@ -12730,7 +12724,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="46" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10">
         <v>42736</v>
       </c>
@@ -12767,7 +12761,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="47" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="10">
         <v>42736</v>
       </c>
@@ -12804,7 +12798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="48" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="10">
         <v>42736</v>
       </c>
@@ -12841,7 +12835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="49" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="10">
         <v>42736</v>
       </c>
@@ -12878,7 +12872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="50" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10">
         <v>42736</v>
       </c>
@@ -12915,7 +12909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="51" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10">
         <v>42736</v>
       </c>
@@ -12952,7 +12946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="52" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10">
         <v>42736</v>
       </c>
@@ -12989,7 +12983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="53" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10">
         <v>42736</v>
       </c>
@@ -13026,7 +13020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="54" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10">
         <v>42736</v>
       </c>
@@ -13063,7 +13057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="55" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10">
         <v>42736</v>
       </c>
@@ -13100,7 +13094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="56" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10">
         <v>42736</v>
       </c>
@@ -13137,7 +13131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="57" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10">
         <v>42736</v>
       </c>
@@ -13174,7 +13168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="58" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10">
         <v>42736</v>
       </c>
@@ -13211,7 +13205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="59" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="10">
         <v>42736</v>
       </c>
@@ -13248,7 +13242,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="60" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10">
         <v>42736</v>
       </c>
@@ -13285,7 +13279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="61" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="10">
         <v>42736</v>
       </c>
@@ -13322,7 +13316,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="62" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="10">
         <v>42736</v>
       </c>
@@ -13359,7 +13353,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="63" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10">
         <v>42736</v>
       </c>
@@ -13396,7 +13390,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="64" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10">
         <v>42736</v>
       </c>
@@ -13433,7 +13427,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="65" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10">
         <v>42736</v>
       </c>
@@ -13470,7 +13464,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="66" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10">
         <v>42736</v>
       </c>
@@ -13507,7 +13501,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="67" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10">
         <v>42736</v>
       </c>
@@ -13544,7 +13538,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="68" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10">
         <v>42736</v>
       </c>
@@ -13581,7 +13575,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="69" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="10">
         <v>42736</v>
       </c>
@@ -13618,7 +13612,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="70" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10">
         <v>42736</v>
       </c>
@@ -13655,7 +13649,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="71" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="10">
         <v>42736</v>
       </c>
@@ -13692,7 +13686,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="72" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="10">
         <v>42736</v>
       </c>
@@ -13729,7 +13723,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="73" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="10">
         <v>42736</v>
       </c>
@@ -13766,7 +13760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="74" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10">
         <v>42736</v>
       </c>
@@ -13803,7 +13797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="75" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="10">
         <v>42736</v>
       </c>
@@ -13840,7 +13834,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="76" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="10">
         <v>42736</v>
       </c>
@@ -13877,7 +13871,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="77" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="10">
         <v>42736</v>
       </c>
@@ -13914,7 +13908,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="78" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="10">
         <v>42736</v>
       </c>
@@ -13951,7 +13945,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="79" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="10">
         <v>42736</v>
       </c>
@@ -13988,7 +13982,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="80" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="10">
         <v>42736</v>
       </c>
@@ -14025,7 +14019,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="81" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="10">
         <v>42736</v>
       </c>
@@ -14062,7 +14056,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="82" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="10">
         <v>42736</v>
       </c>
@@ -14099,7 +14093,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="83" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="10">
         <v>42736</v>
       </c>
@@ -14136,7 +14130,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="84" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="10">
         <v>42736</v>
       </c>
@@ -14173,7 +14167,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="85" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="10">
         <v>42736</v>
       </c>
@@ -14210,7 +14204,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="86" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="10">
         <v>42736</v>
       </c>
@@ -14247,7 +14241,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="87" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="10">
         <v>42736</v>
       </c>
@@ -14284,7 +14278,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="88" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="10">
         <v>42736</v>
       </c>
@@ -14321,7 +14315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="89" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="10">
         <v>42736</v>
       </c>
@@ -14358,7 +14352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="90" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="10">
         <v>42736</v>
       </c>
@@ -14395,7 +14389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="91" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="10">
         <v>42736</v>
       </c>
@@ -14432,7 +14426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="92" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="10">
         <v>42736</v>
       </c>
@@ -14469,7 +14463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="93" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="10">
         <v>42736</v>
       </c>
@@ -14506,7 +14500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="94" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="10">
         <v>42736</v>
       </c>
@@ -14543,7 +14537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="95" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="10">
         <v>42736</v>
       </c>
@@ -14580,7 +14574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="96" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="10">
         <v>42736</v>
       </c>
@@ -14617,7 +14611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="97" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="10">
         <v>42736</v>
       </c>
@@ -14654,7 +14648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="98" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="10">
         <v>42736</v>
       </c>
@@ -14691,7 +14685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="99" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="10">
         <v>42736</v>
       </c>
@@ -14728,7 +14722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="100" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="10">
         <v>42736</v>
       </c>
@@ -14765,7 +14759,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="101" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="10">
         <v>42736</v>
       </c>
@@ -14802,7 +14796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="102" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="10">
         <v>42736</v>
       </c>
@@ -14839,7 +14833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="103" spans="1:15" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="10">
         <v>42736</v>
       </c>
@@ -14903,17 +14897,17 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
@@ -14929,7 +14923,7 @@
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:6" s="23" customFormat="1" ht="42">
+    <row r="2" spans="1:6" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -14945,7 +14939,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -14965,7 +14959,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -14983,7 +14977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1">
+    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
